--- a/测试问题/问题单-2017-01-25.xlsx
+++ b/测试问题/问题单-2017-01-25.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,145 +56,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PC端-钢瓶档案
+显示在哪个责任人，这个人在哪个部门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端-我的订单
+下拉刷新功能需要增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店管理
+最上面的出库按钮点了没用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态
+已经付钱了，订单的支付状态还是待支付。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端-订单提交
+钢瓶随便填也成功了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端-订单提交
+钢瓶责任交接，空瓶可以不输入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试点方案相关
+钢瓶增加初始状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端
+配送工能看到名下钢瓶数量和号码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端
+安全检查，先隐藏掉？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务相关
+空瓶号不对，业务上怎么处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端
+扫码支付的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-云客服管理
+云客服绑定非法用户，弹了两次错误信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-商品信息列表
+状态、价格、重量显示不对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-门店管理-订单核实
+状态显示不对，不能为数字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-主界面-
+用户中心弹出了错误链接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-部门增加
+增加失败没有错误提示，要增加修改功能。部门删除的时候，只读！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端
+所有查询页面ID隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-用户查询
+没有选择所有角色的选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-用户创建
+角色不能选择客户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端
+所有输入框要有长度限制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端-钢瓶档案
+钢瓶档案的查询条件需要丰富。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋婧芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王远斌、周源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周源</t>
+  </si>
+  <si>
+    <t>采纳第一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送端
+待抢订单显示地址，直接抢单按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采纳（最后改！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢坤对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王远斌、周源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成（有云服务器再解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
     <t>用户端小程序-选择商品
 默认为20公斤，但是价格都没有计算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-钢瓶档案
-显示在哪个责任人，这个人在哪个部门。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端-我的订单
-下拉刷新功能需要增加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店管理
-最上面的出库按钮点了没用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态
-已经付钱了，订单的支付状态还是待支付。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端-订单提交
-钢瓶随便填也成功了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端-订单提交
-钢瓶责任交接，空瓶可以不输入。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试点方案相关
-钢瓶增加初始状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端
-配送工能看到名下钢瓶数量和号码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端
-安全检查，先隐藏掉？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务相关
-空瓶号不对，业务上怎么处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端
-扫码支付的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-云客服管理
-云客服绑定非法用户，弹了两次错误信息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-商品信息列表
-状态、价格、重量显示不对。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-门店管理-订单核实
-状态显示不对，不能为数字。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-主界面-
-用户中心弹出了错误链接。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-部门增加
-增加失败没有错误提示，要增加修改功能。部门删除的时候，只读！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端
-所有查询页面ID隐藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-用户查询
-没有选择所有角色的选项。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-用户创建
-角色不能选择客户。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端
-所有输入框要有长度限制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC端-钢瓶档案
-钢瓶档案的查询条件需要丰富。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋婧芝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王远斌、周源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周源</t>
-  </si>
-  <si>
-    <t>采纳第一条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送端
-待抢订单显示地址，直接抢单按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采纳（最后改！）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢坤对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王远斌、周源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +632,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -662,9 +673,11 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -677,31 +690,35 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -709,155 +726,175 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -866,165 +903,187 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:A14">
